--- a/Insumo_Planeacion.xlsx
+++ b/Insumo_Planeacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juanc\Downloads\APP_caña\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DC7307-3262-421C-96F8-A9FE26AAD6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F179A2F3-D7AC-4803-9EC4-B9BE48DE233C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foliar" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="132">
   <si>
     <t>Registro</t>
   </si>
@@ -415,7 +415,10 @@
     <t>B,C</t>
   </si>
   <si>
-    <t>A,C</t>
+    <t>D</t>
+  </si>
+  <si>
+    <t>2025-001AE</t>
   </si>
 </sst>
 </file>
@@ -3194,15 +3197,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="236" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="236" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -3232,10 +3236,10 @@
         <v>114</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>45879</v>
+        <v>45910</v>
       </c>
       <c r="E2" t="s">
         <v>128</v>
@@ -3246,10 +3250,10 @@
         <v>115</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>45881</v>
+        <v>45912</v>
       </c>
       <c r="E3" t="s">
         <v>120</v>
@@ -3260,13 +3264,13 @@
         <v>116</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>45884</v>
+        <v>45915</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3274,10 +3278,10 @@
         <v>117</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2">
-        <v>45894</v>
+        <v>45925</v>
       </c>
       <c r="E5" t="s">
         <v>120</v>
@@ -3288,10 +3292,10 @@
         <v>118</v>
       </c>
       <c r="B6">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2">
-        <v>45910</v>
+        <v>45940</v>
       </c>
       <c r="E6" t="s">
         <v>120</v>
@@ -3302,17 +3306,28 @@
         <v>119</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>45918</v>
+        <v>45948</v>
       </c>
       <c r="E7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45827</v>
+      </c>
+      <c r="E8" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
@@ -3354,9 +3369,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="205" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3387,7 +3404,7 @@
         <v>122</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -3398,10 +3415,21 @@
         <v>123</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Insumo_Planeacion.xlsx
+++ b/Insumo_Planeacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juanc\Downloads\APP_caña\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F179A2F3-D7AC-4803-9EC4-B9BE48DE233C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22871A9D-95F2-496C-AB7B-863B3DAC98F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foliar" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="127">
   <si>
     <t>Registro</t>
   </si>
@@ -376,15 +376,6 @@
     <t>2025-003AF</t>
   </si>
   <si>
-    <t>2025-004AF</t>
-  </si>
-  <si>
-    <t>2025-005AF</t>
-  </si>
-  <si>
-    <t>2025-006AF</t>
-  </si>
-  <si>
     <t>A,B</t>
   </si>
   <si>
@@ -409,16 +400,10 @@
     <t xml:space="preserve">Capacidad </t>
   </si>
   <si>
-    <t>A,B,C</t>
-  </si>
-  <si>
-    <t>B,C</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
-    <t>2025-001AE</t>
+    <t>C,D</t>
   </si>
 </sst>
 </file>
@@ -3195,10 +3180,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="236" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="236" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3236,13 +3221,13 @@
         <v>114</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
-        <v>45910</v>
+        <v>45942</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3250,13 +3235,13 @@
         <v>115</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>45912</v>
+        <v>45972</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3264,70 +3249,26 @@
         <v>116</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>45915</v>
+        <v>45980</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45925</v>
-      </c>
-      <c r="E5" t="s">
-        <v>120</v>
-      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45940</v>
-      </c>
-      <c r="E6" t="s">
-        <v>120</v>
-      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>45948</v>
-      </c>
-      <c r="E7" t="s">
-        <v>129</v>
-      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45827</v>
-      </c>
-      <c r="E8" t="s">
-        <v>130</v>
-      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
@@ -3340,27 +3281,15 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3371,7 +3300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" workbookViewId="0">
+    <sheetView zoomScale="205" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3379,18 +3308,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3401,7 +3330,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3412,7 +3341,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3423,7 +3352,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3447,7 +3376,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
